--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1276.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1276.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8792930807967517</v>
+        <v>1.132261037826538</v>
       </c>
       <c r="B1">
-        <v>1.56773574838458</v>
+        <v>2.104254245758057</v>
       </c>
       <c r="C1">
-        <v>5.428146001648399</v>
+        <v>10.07627773284912</v>
       </c>
       <c r="D1">
-        <v>3.682544657394215</v>
+        <v>2.509932279586792</v>
       </c>
       <c r="E1">
-        <v>1.476414786346714</v>
+        <v>1.294487714767456</v>
       </c>
     </row>
   </sheetData>
